--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -116,7 +116,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -174,150 +174,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -626,7 +482,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -662,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -685,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -708,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -731,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -751,10 +607,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -774,10 +630,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -797,10 +653,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -820,10 +676,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -843,10 +699,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -866,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -889,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -912,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -933,7 +789,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -964,13 +820,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G16">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"todo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -564,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -610,7 +610,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -633,7 +633,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -656,7 +656,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -725,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>World 1</t>
   </si>
@@ -47,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -101,17 +109,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,11 +185,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -145,11 +209,11 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -482,7 +546,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -521,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -544,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -702,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -725,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
@@ -748,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -786,48 +850,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="15" spans="1:7">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" ref="F15:F18" si="0">COUNTIF($B$2:$G$13, "ok")/72</f>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"ok"</formula>
+  <mergeCells count="1">
+    <mergeCell ref="F15:G16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:E15 G2:G15 F2:F14">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"todo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"todo"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -180,7 +180,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <font>
         <condense val="0"/>
@@ -214,42 +214,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -585,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
@@ -608,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
@@ -861,8 +825,8 @@
         <v>7</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ref="F15:F18" si="0">COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.30555555555555558</v>
+        <f t="shared" ref="F15" si="0">COUNTIF($B$2:$G$13, "ok")/72</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -595,7 +595,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -641,7 +641,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
@@ -664,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -776,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" ref="F15" si="0">COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.33333333333333331</v>
+        <v>0.40277777777777779</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -552,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -575,13 +575,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -664,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -687,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -710,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
@@ -779,7 +779,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" ref="F15" si="0">COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.40277777777777779</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -690,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -598,7 +598,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -621,7 +621,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -690,7 +690,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
@@ -713,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" ref="F15" si="0">COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.54166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -736,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>7</v>
@@ -756,10 +756,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>7</v>
@@ -779,10 +779,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>7</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" ref="F15" si="0">COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.625</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -510,7 +511,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -601,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>7</v>
@@ -624,7 +625,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -647,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>7</v>
@@ -670,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -693,7 +694,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
@@ -716,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>7</v>
@@ -805,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>7</v>
@@ -825,8 +826,8 @@
         <v>7</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ref="F15" si="0">COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.70833333333333337</v>
+        <f>COUNTIF($B$2:$G$13, "ok")/72</f>
+        <v>0.80555555555555558</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -511,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -740,7 +739,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>7</v>
@@ -763,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>7</v>
@@ -786,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>7</v>
@@ -827,7 +826,7 @@
       </c>
       <c r="F15" s="4">
         <f>COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.80555555555555558</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -696,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -808,7 +808,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>7</v>
@@ -826,7 +826,7 @@
       </c>
       <c r="F15" s="4">
         <f>COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.84722222222222221</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -673,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -696,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -826,7 +826,7 @@
       </c>
       <c r="F15" s="4">
         <f>COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.86111111111111116</v>
+        <v>0.93055555555555558</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -742,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -826,7 +826,7 @@
       </c>
       <c r="F15" s="4">
         <f>COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.93055555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -765,7 +765,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -826,7 +826,7 @@
       </c>
       <c r="F15" s="4">
         <f>COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>0.95833333333333337</v>
+        <v>1</v>
       </c>
       <c r="G15" s="5"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="21">
   <si>
     <t>World 1</t>
   </si>
@@ -41,13 +41,49 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Mountains</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Hills</t>
+  </si>
+  <si>
+    <t>Sweets</t>
+  </si>
+  <si>
+    <t>World 7</t>
+  </si>
+  <si>
+    <t>World 8</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Islands</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +107,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -86,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -153,11 +196,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -176,11 +247,163 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -507,18 +730,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,315 +760,477 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3">
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="3">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="3">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3">
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="3">
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="4">
-        <f>COUNTIF($B$2:$G$13, "ok")/72</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4">
+        <f>COUNTIF($B$3:$I$16, "ok")/112</f>
+        <v>0.75</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="F18:G19"/>
   </mergeCells>
-  <conditionalFormatting sqref="B2:E15 G2:G15 F2:F14">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="B3:E18 G3:G18 F3:F17 H3:I16">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"todo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="23">
   <si>
     <t>World 1</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Islands</t>
+  </si>
+  <si>
+    <t>World 9</t>
+  </si>
+  <si>
+    <t>Fortress</t>
   </si>
 </sst>
 </file>
@@ -235,6 +241,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,127 +261,11 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -730,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -741,7 +639,7 @@
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,35 +664,41 @@
       <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="9" t="s">
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -821,66 +725,75 @@
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A4" s="8" t="s">
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -908,8 +821,11 @@
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -937,8 +853,11 @@
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -966,8 +885,11 @@
       <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -995,8 +917,11 @@
       <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1024,8 +949,11 @@
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1053,8 +981,11 @@
       <c r="I11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -1082,8 +1013,11 @@
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1111,8 +1045,11 @@
       <c r="I13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -1140,8 +1077,11 @@
       <c r="I14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -1169,8 +1109,11 @@
       <c r="I15" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -1198,6 +1141,9 @@
       <c r="I16" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="1" t="s">
@@ -1209,28 +1155,28 @@
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="4">
-        <f>COUNTIF($B$3:$I$16, "ok")/112</f>
-        <v>0.75</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="F18" s="8">
+        <f>COUNTIF($B$3:$J$16, "ok")/126</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F18:G19"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:E18 G3:G18 F3:F17 H3:I16">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="B3:E18 G3:G18 F3:F17 H3:J16">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"todo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -265,43 +265,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <condense val="0"/>
@@ -631,7 +595,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -720,13 +684,13 @@
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
@@ -752,13 +716,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -784,13 +748,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -816,13 +780,13 @@
         <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1157,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.66666666666666663</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -1170,13 +1134,13 @@
     <mergeCell ref="F18:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:E18 G3:G18 F3:F17 H3:J16">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"todo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"test"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"ok"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
@@ -858,19 +858,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -922,16 +922,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
@@ -957,19 +957,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>7</v>
@@ -989,13 +989,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -1021,19 +1021,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>7</v>
@@ -1053,13 +1053,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -1085,10 +1085,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.76190476190476186</v>
+        <v>0.57936507936507942</v>
       </c>
       <c r="G18" s="9"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>6</v>
@@ -858,19 +858,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>6</v>
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -922,16 +922,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
@@ -957,19 +957,19 @@
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>7</v>
@@ -989,13 +989,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -1021,19 +1021,19 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>7</v>
@@ -1053,13 +1053,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -1085,10 +1085,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>6</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.57936507936507942</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="G18" s="9"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -812,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -844,13 +844,13 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10">

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -812,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -844,13 +844,13 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.76190476190476186</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="G18" s="9"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -876,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -908,13 +908,13 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -940,13 +940,13 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.80952380952380953</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G18" s="9"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -876,13 +876,13 @@
         <v>6</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -908,13 +908,13 @@
         <v>6</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.83333333333333337</v>
+        <v>0.88095238095238093</v>
       </c>
       <c r="G18" s="9"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -972,13 +972,13 @@
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1004,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>7</v>
@@ -1036,7 +1036,7 @@
         <v>6</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>7</v>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.88095238095238093</v>
+        <v>0.92063492063492058</v>
       </c>
       <c r="G18" s="9"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1007,10 +1007,10 @@
         <v>6</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1039,10 +1039,10 @@
         <v>6</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.92063492063492058</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="G18" s="9"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1068,13 +1068,13 @@
         <v>6</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.95238095238095233</v>
+        <v>0.97619047619047616</v>
       </c>
       <c r="G18" s="9"/>
     </row>

--- a/todo-lvl.xlsx
+++ b/todo-lvl.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1100,13 +1100,13 @@
         <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F18" s="8">
         <f>COUNTIF($B$3:$J$16, "ok")/126</f>
-        <v>0.97619047619047616</v>
+        <v>1</v>
       </c>
       <c r="G18" s="9"/>
     </row>
